--- a/Pokemon/配置文件/1.配置文件/1.1/corps_dungeon_tips_info.xlsx
+++ b/Pokemon/配置文件/1.配置文件/1.1/corps_dungeon_tips_info.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -21,7 +21,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0">
+    <comment ref="D3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,27 +226,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上阵英雄，可额外造成50%伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上阵怪人，可额外造成50%伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上阵英雄，可额外造成50%伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上阵怪人，可额外造成50%伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>上阵精灵，可额外造成50%伤害</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,6 +435,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -494,7 +489,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -526,9 +521,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -560,6 +556,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -735,14 +732,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" customWidth="1"/>
@@ -750,12 +747,12 @@
     <col min="5" max="5" width="41.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -772,7 +769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -789,7 +786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -806,7 +803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -823,7 +820,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -840,7 +837,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -854,10 +851,10 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -871,10 +868,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -888,10 +885,10 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C10" s="5"/>
     </row>
   </sheetData>
@@ -943,12 +940,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -957,12 +954,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
